--- a/forms/app/fp_follow_up_renewal.xlsx
+++ b/forms/app/fp_follow_up_renewal.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="476">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -147,6 +147,9 @@
     <t xml:space="preserve">contact</t>
   </si>
   <si>
+    <t xml:space="preserve">NO_LABEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">db:person</t>
   </si>
   <si>
@@ -336,9 +339,6 @@
     <t xml:space="preserve">stop_fp</t>
   </si>
   <si>
-    <t xml:space="preserve">NO_LABEL</t>
-  </si>
-  <si>
     <t xml:space="preserve">if(${red_side_effects_1} = 'yes' or ${ref_side_effects} = 'true' or ${s_refer_for_health_state} = 'true', 'yes', 'no')</t>
   </si>
   <si>
@@ -369,7 +369,7 @@
     <t xml:space="preserve">Avez-vous renouvelé la méthode pour le patient ? </t>
   </si>
   <si>
-    <t xml:space="preserve">horizontal</t>
+    <t xml:space="preserve">columns</t>
   </si>
   <si>
     <r>
@@ -842,7 +842,7 @@
     <t xml:space="preserve">Est-ce que vous allez référer la femme pour les effets secondaires graves?</t>
   </si>
   <si>
-    <t xml:space="preserve">horizontal-compact</t>
+    <t xml:space="preserve">columns-compact</t>
   </si>
   <si>
     <t xml:space="preserve">${ref_side_effects} = ‘true’</t>
@@ -2148,19 +2148,18 @@
   <dimension ref="A1:AA1004"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C98" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
-      <selection pane="bottomRight" activeCell="B91" activeCellId="0" sqref="B91"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A98" activeCellId="0" sqref="A98"/>
+      <selection pane="bottomRight" activeCell="B123" activeCellId="0" sqref="B123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="37.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="56.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="68.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="49.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.85"/>
@@ -2486,8 +2485,12 @@
       <c r="B8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -2514,22 +2517,22 @@
     </row>
     <row r="9" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="7"/>
@@ -2539,10 +2542,10 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
@@ -2563,10 +2566,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -2599,13 +2602,13 @@
         <v>22</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -2640,13 +2643,13 @@
         <v>22</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -2679,13 +2682,13 @@
         <v>22</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -2715,7 +2718,7 @@
     </row>
     <row r="14" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2746,7 +2749,7 @@
     </row>
     <row r="15" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2777,13 +2780,13 @@
     </row>
     <row r="16" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="12"/>
@@ -2799,7 +2802,7 @@
       <c r="M16" s="13"/>
       <c r="N16" s="12"/>
       <c r="O16" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
@@ -2816,13 +2819,13 @@
     </row>
     <row r="17" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="12"/>
@@ -2838,7 +2841,7 @@
       <c r="M17" s="13"/>
       <c r="N17" s="12"/>
       <c r="O17" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
@@ -2855,13 +2858,13 @@
     </row>
     <row r="18" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="12"/>
@@ -2875,7 +2878,7 @@
       <c r="M18" s="10"/>
       <c r="N18" s="12"/>
       <c r="O18" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
@@ -2892,10 +2895,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="15"/>
@@ -2910,7 +2913,7 @@
       <c r="M19" s="17"/>
       <c r="N19" s="16"/>
       <c r="O19" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P19" s="16"/>
       <c r="Q19" s="17"/>
@@ -2927,10 +2930,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="15"/>
@@ -2945,7 +2948,7 @@
       <c r="M20" s="17"/>
       <c r="N20" s="16"/>
       <c r="O20" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P20" s="16"/>
       <c r="Q20" s="17"/>
@@ -2962,16 +2965,16 @@
     </row>
     <row r="21" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -2981,7 +2984,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="7"/>
       <c r="O21" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
@@ -2998,16 +3001,16 @@
     </row>
     <row r="22" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -3020,7 +3023,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="7"/>
       <c r="O22" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
@@ -3037,16 +3040,16 @@
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
@@ -3059,7 +3062,7 @@
       <c r="M23" s="17"/>
       <c r="N23" s="16"/>
       <c r="O23" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P23" s="16"/>
       <c r="Q23" s="17"/>
@@ -3076,16 +3079,16 @@
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
@@ -3098,7 +3101,7 @@
       <c r="M24" s="17"/>
       <c r="N24" s="16"/>
       <c r="O24" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P24" s="16"/>
       <c r="Q24" s="17"/>
@@ -3115,16 +3118,16 @@
     </row>
     <row r="25" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -3137,7 +3140,7 @@
       <c r="M25" s="17"/>
       <c r="N25" s="16"/>
       <c r="O25" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P25" s="16"/>
       <c r="Q25" s="17"/>
@@ -3154,19 +3157,19 @@
     </row>
     <row r="26" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -3178,7 +3181,7 @@
       <c r="M26" s="17"/>
       <c r="N26" s="16"/>
       <c r="O26" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P26" s="16"/>
       <c r="Q26" s="17"/>
@@ -3195,10 +3198,10 @@
     </row>
     <row r="27" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>34</v>
@@ -3217,7 +3220,7 @@
       <c r="M27" s="18"/>
       <c r="N27" s="17"/>
       <c r="O27" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
@@ -3234,10 +3237,10 @@
     </row>
     <row r="28" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="17"/>
@@ -3252,7 +3255,7 @@
       <c r="M28" s="18"/>
       <c r="N28" s="17"/>
       <c r="O28" s="19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P28" s="17"/>
       <c r="Q28" s="17"/>
@@ -3269,13 +3272,13 @@
     </row>
     <row r="29" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
@@ -3289,7 +3292,7 @@
       <c r="M29" s="18"/>
       <c r="N29" s="17"/>
       <c r="O29" s="18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P29" s="17"/>
       <c r="Q29" s="17"/>
@@ -3306,10 +3309,10 @@
     </row>
     <row r="30" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="17"/>
@@ -3324,7 +3327,7 @@
       <c r="M30" s="18"/>
       <c r="N30" s="17"/>
       <c r="O30" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P30" s="17"/>
       <c r="Q30" s="17"/>
@@ -3341,16 +3344,16 @@
     </row>
     <row r="31" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
@@ -3380,16 +3383,16 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>105</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="20"/>
@@ -3470,7 +3473,7 @@
         <v>113</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="18" t="s">
@@ -3511,7 +3514,7 @@
         <v>118</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
@@ -3554,7 +3557,7 @@
         <v>124</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
@@ -3595,7 +3598,7 @@
         <v>129</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F37" s="20"/>
       <c r="G37" s="20"/>
@@ -3632,10 +3635,10 @@
         <v>133</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="20"/>
@@ -3665,16 +3668,16 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>135</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="20"/>
@@ -3704,16 +3707,16 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>137</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="20"/>
@@ -3743,16 +3746,16 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>139</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="20"/>
@@ -3782,7 +3785,7 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -3864,7 +3867,7 @@
         <v>147</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G44" s="18" t="s">
         <v>114</v>
@@ -3938,7 +3941,7 @@
         <v>166</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I48" s="22" t="s">
         <v>162</v>
@@ -4023,7 +4026,7 @@
         <v>183</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F53" s="20" t="s">
         <v>184</v>
@@ -4068,7 +4071,7 @@
         <v>188</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F54" s="20" t="s">
         <v>184</v>
@@ -4113,7 +4116,7 @@
         <v>191</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F55" s="20" t="s">
         <v>184</v>
@@ -4158,7 +4161,7 @@
         <v>194</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F56" s="20" t="s">
         <v>184</v>
@@ -4203,7 +4206,7 @@
         <v>197</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F57" s="20" t="s">
         <v>184</v>
@@ -4248,7 +4251,7 @@
         <v>200</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F58" s="20" t="s">
         <v>184</v>
@@ -4293,7 +4296,7 @@
         <v>203</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F59" s="20" t="s">
         <v>184</v>
@@ -4338,7 +4341,7 @@
         <v>206</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F60" s="20" t="s">
         <v>184</v>
@@ -4383,7 +4386,7 @@
         <v>209</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F61" s="20" t="s">
         <v>184</v>
@@ -4428,7 +4431,7 @@
         <v>212</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F62" s="20" t="s">
         <v>184</v>
@@ -4473,7 +4476,7 @@
         <v>215</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F63" s="20" t="s">
         <v>184</v>
@@ -4518,7 +4521,7 @@
         <v>218</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F64" s="20" t="s">
         <v>184</v>
@@ -4551,16 +4554,16 @@
     </row>
     <row r="65" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>219</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="20"/>
@@ -4602,7 +4605,7 @@
         <v>224</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F66" s="20" t="s">
         <v>184</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="67" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -4719,7 +4722,7 @@
         <v>231</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F69" s="20" t="s">
         <v>184</v>
@@ -4764,7 +4767,7 @@
         <v>234</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F70" s="20" t="s">
         <v>184</v>
@@ -4809,7 +4812,7 @@
         <v>237</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F71" s="20" t="s">
         <v>184</v>
@@ -4854,7 +4857,7 @@
         <v>240</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F72" s="20" t="s">
         <v>184</v>
@@ -4899,7 +4902,7 @@
         <v>243</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F73" s="20" t="s">
         <v>184</v>
@@ -4932,16 +4935,16 @@
     </row>
     <row r="74" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>244</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="20"/>
@@ -4983,7 +4986,7 @@
         <v>248</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F75" s="20" t="s">
         <v>184</v>
@@ -5018,7 +5021,7 @@
     </row>
     <row r="76" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -5100,7 +5103,7 @@
         <v>256</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F78" s="20" t="s">
         <v>184</v>
@@ -5145,7 +5148,7 @@
         <v>259</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F79" s="20" t="s">
         <v>184</v>
@@ -5192,7 +5195,7 @@
         <v>263</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F80" s="20" t="s">
         <v>184</v>
@@ -5239,7 +5242,7 @@
         <v>267</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F81" s="20" t="s">
         <v>184</v>
@@ -5286,7 +5289,7 @@
         <v>271</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F82" s="20" t="s">
         <v>184</v>
@@ -5333,7 +5336,7 @@
         <v>275</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F83" s="20" t="s">
         <v>184</v>
@@ -5380,7 +5383,7 @@
         <v>279</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F84" s="20" t="s">
         <v>184</v>
@@ -5427,7 +5430,7 @@
         <v>283</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F85" s="20" t="s">
         <v>184</v>
@@ -5474,7 +5477,7 @@
         <v>287</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F86" s="20" t="s">
         <v>184</v>
@@ -5521,7 +5524,7 @@
         <v>291</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F87" s="20" t="s">
         <v>184</v>
@@ -5556,16 +5559,16 @@
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>293</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="E88" s="7"/>
       <c r="F88" s="20"/>
@@ -5634,7 +5637,7 @@
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -5896,7 +5899,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="98" s="22" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="22" t="s">
         <v>154</v>
       </c>
@@ -5919,7 +5922,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="99" s="22" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="22" t="s">
         <v>154</v>
       </c>
@@ -5942,7 +5945,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="100" s="22" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="22" t="s">
         <v>154</v>
       </c>
@@ -5965,7 +5968,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="101" s="22" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="22" t="s">
         <v>154</v>
       </c>
@@ -5988,7 +5991,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="102" s="22" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="22" t="s">
         <v>154</v>
       </c>
@@ -6011,7 +6014,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="103" s="22" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="22" t="s">
         <v>154</v>
       </c>
@@ -6034,7 +6037,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="104" s="22" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="22" t="s">
         <v>154</v>
       </c>
@@ -6057,7 +6060,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="105" s="22" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="22" t="s">
         <v>154</v>
       </c>
@@ -6080,7 +6083,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="106" s="22" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="22" t="s">
         <v>154</v>
       </c>
@@ -6103,7 +6106,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="107" s="22" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="22" t="s">
         <v>154</v>
       </c>
@@ -6126,7 +6129,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="108" s="22" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="22" t="s">
         <v>154</v>
       </c>
@@ -6149,7 +6152,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="109" s="22" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="22" t="s">
         <v>154</v>
       </c>
@@ -6172,7 +6175,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="110" s="22" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="22" t="s">
         <v>154</v>
       </c>
@@ -6195,7 +6198,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="111" s="22" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="22" t="s">
         <v>154</v>
       </c>
@@ -6218,7 +6221,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="112" s="22" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="22" t="s">
         <v>154</v>
       </c>
@@ -6241,7 +6244,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="113" s="22" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="22" t="s">
         <v>154</v>
       </c>
@@ -6264,7 +6267,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="114" s="22" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="22" t="s">
         <v>154</v>
       </c>
@@ -6287,7 +6290,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="115" s="22" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="22" t="s">
         <v>154</v>
       </c>
@@ -6308,7 +6311,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="116" s="22" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="22" t="s">
         <v>154</v>
       </c>
@@ -6329,7 +6332,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="117" s="22" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="22" t="s">
         <v>154</v>
       </c>
@@ -6350,7 +6353,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="118" s="22" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="22" t="s">
         <v>154</v>
       </c>
@@ -6371,7 +6374,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="119" s="22" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="22" t="s">
         <v>154</v>
       </c>
@@ -6392,7 +6395,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="120" s="22" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="22" t="s">
         <v>154</v>
       </c>
@@ -6413,7 +6416,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="121" s="22" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="22" t="s">
         <v>154</v>
       </c>
@@ -6434,7 +6437,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="122" s="22" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="22" t="s">
         <v>154</v>
       </c>
@@ -6455,7 +6458,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="123" s="22" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="22" t="s">
         <v>154</v>
       </c>
@@ -6476,7 +6479,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="124" s="22" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="22" t="s">
         <v>154</v>
       </c>
@@ -6536,7 +6539,7 @@
       <c r="Z125" s="33"/>
       <c r="AA125" s="33"/>
     </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
         <v>154</v>
       </c>
@@ -6555,7 +6558,7 @@
       <c r="H126" s="18"/>
       <c r="I126" s="18"/>
     </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="34" t="s">
         <v>110</v>
       </c>
@@ -6569,7 +6572,7 @@
         <v>401</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F127" s="20"/>
       <c r="G127" s="20"/>
@@ -6578,7 +6581,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="33" t="s">
         <v>154</v>
       </c>
@@ -6619,7 +6622,7 @@
       <c r="Z128" s="33"/>
       <c r="AA128" s="33"/>
     </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
         <v>154</v>
       </c>
@@ -6640,7 +6643,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
         <v>154</v>
       </c>
@@ -6661,7 +6664,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
         <v>154</v>
       </c>
@@ -6682,7 +6685,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
         <v>154</v>
       </c>
@@ -6705,7 +6708,7 @@
     </row>
     <row r="133" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -7659,10 +7662,10 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44"/>
@@ -7698,7 +7701,7 @@
         <v>425</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>426</v>
